--- a/kaiseki/around_30.xlsx
+++ b/kaiseki/around_30.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6048939b20a31529/ドキュメント/b4_analysis/kaiseki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="150" documentId="13_ncr:1_{310BABBE-DCD8-4E12-B918-667F024EE8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{444D8191-EA3D-4090-92FB-B4F9A1980619}"/>
+  <xr:revisionPtr revIDLastSave="160" documentId="13_ncr:1_{310BABBE-DCD8-4E12-B918-667F024EE8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FCE9C40-1061-4395-AED0-D02C1FFB6385}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="17805" windowHeight="13575" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1292,6 +1292,7 @@
         <c:axId val="1178166032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1310,6 +1311,44 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>周辺</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>30</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>ピクセル注視割合</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1430,12 +1469,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2007,6 +2041,44 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>周辺</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>30</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>ピクセル注視割合</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2127,12 +2199,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3281,16 +3348,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>291703</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>3572</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>327422</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>27385</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>29765</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>79772</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>65485</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>103585</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3609,8 +3676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20:R34"/>
+    <sheetView topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W39" sqref="W39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8521,8 +8588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A72B530-D1CA-4CD0-9DA9-0C5B32D19717}">
   <dimension ref="A1:EK102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:W29"/>
+    <sheetView tabSelected="1" topLeftCell="M18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q42" sqref="Q42:X47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11878,12 +11945,12 @@
         <v>0.34930569843384818</v>
       </c>
       <c r="S44">
-        <f>T39*SQRT(138)/SQRT(T39^2)</f>
-        <v>11.74734012447073</v>
+        <f>S39*SQRT(138)/SQRT(1-S39^2)</f>
+        <v>-4.8020388151525921</v>
       </c>
       <c r="T44">
         <f>TDIST(ABS(S44),138,2)</f>
-        <v>1.6129081532651016E-22</v>
+        <v>4.0358912333749743E-6</v>
       </c>
       <c r="U44">
         <f>T39*SQRT(68)/SQRT(1-T39^2)</f>
@@ -11894,12 +11961,12 @@
         <v>0.26866075819578356</v>
       </c>
       <c r="W44">
-        <f>U39*SQRT(138)/SQRT(U39^2)</f>
-        <v>-11.74734012447073</v>
+        <f>U39*SQRT(138)/SQRT(1-U39^2)</f>
+        <v>-5.4165150382334701</v>
       </c>
       <c r="X44">
         <f>TDIST(ABS(W44),138,2)</f>
-        <v>1.6129081532651016E-22</v>
+        <v>2.6258156633700924E-7</v>
       </c>
       <c r="Z44" t="s">
         <v>79</v>

--- a/kaiseki/around_30.xlsx
+++ b/kaiseki/around_30.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6048939b20a31529/ドキュメント/b4_analysis/kaiseki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="160" documentId="13_ncr:1_{310BABBE-DCD8-4E12-B918-667F024EE8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FCE9C40-1061-4395-AED0-D02C1FFB6385}"/>
+  <xr:revisionPtr revIDLastSave="304" documentId="13_ncr:1_{310BABBE-DCD8-4E12-B918-667F024EE8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07F38E34-B7E2-48BB-B264-A4B72CEECD2C}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="17805" windowHeight="13575" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31890" yWindow="180" windowWidth="17805" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="111">
   <si>
     <t>imahashi</t>
   </si>
@@ -820,8 +820,26 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -897,8 +915,44 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$21:$AB$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.8658020911948769</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.6452186162239153</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$21:$AB$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.8658020911948769</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.6452186162239153</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -983,8 +1037,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$22:$AB$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>4.3770472159456837</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.1076835870428834</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.1733704328106547</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.7670806884886199</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$22:$AB$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>4.3770472159456837</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.1076835870428834</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.1733704328106547</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.7670806884886199</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1072,8 +1168,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$23:$AB$23</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>3.2147609857590096</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.1486685037937487</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.1298489631679915</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.4772494647050305</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$23:$AB$23</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>3.2147609857590096</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.1486685037937487</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.1298489631679915</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.4772494647050305</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1121,7 +1259,7 @@
                   <c:v>11.758044578719737</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.675560395331118</c:v>
+                  <c:v>9.2539310883531929</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>12.023992658297518</c:v>
@@ -1161,8 +1299,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$24:$AB$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>3.3651677051330493</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.3293693222021847</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.5481432695379902</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.9695089032141415</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$24:$AB$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>3.3651677051330493</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.3293693222021847</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.5481432695379902</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.9695089032141415</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1292,7 +1472,7 @@
         <c:axId val="1178166032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="50"/>
+          <c:max val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1539,8 +1719,44 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$30:$AB$30</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="1">
+                    <c:v>10.21754600827677</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>14.696247232055764</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$30:$AB$30</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="1">
+                    <c:v>10.21754600827677</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>14.696247232055764</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1625,8 +1841,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$31:$AB$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>13.130080010281272</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>12.681431910871705</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>20.161708103803086</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>16.727100015146281</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$31:$AB$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>13.130080010281272</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>12.681431910871705</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>20.161708103803086</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>16.727100015146281</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1714,8 +1972,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$32:$AB$32</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>17.837104994937945</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>13.822628572470176</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15.78996640778473</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>13.059103938567604</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$32:$AB$32</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>17.837104994937945</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>13.822628572470176</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15.78996640778473</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>13.059103938567604</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1760,7 +2060,7 @@
                   <c:v>30.9120929495569</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.1056801034564</c:v>
+                  <c:v>25.915540751954993</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>25.885903806619385</c:v>
@@ -1803,8 +2103,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$33:$AB$33</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>11.449025384329159</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.9716943458124749</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>14.258906410472907</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.7978437402395251</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$33:$AB$33</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>11.449025384329159</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.9716943458124749</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>14.258906410472907</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.7978437402395251</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1892,8 +2234,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$34:$AB$34</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>11.061653805214194</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.3309428761678177</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.8318848835849852</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.672761992465162</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$34:$AB$34</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>11.061653805214194</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.3309428761678177</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.8318848835849852</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.672761992465162</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2023,6 +2407,7 @@
         <c:axId val="1182247696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3312,16 +3697,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>196453</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>660797</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>146447</xdr:rowOff>
+      <xdr:rowOff>122635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>625078</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>20241</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>398860</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>163116</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3348,16 +3733,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>327422</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>27385</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>494110</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>134542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>65485</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>103585</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>232172</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>44054</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3674,10 +4059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V102"/>
+  <dimension ref="A1:AB102"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W39" sqref="W39"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Y37" sqref="Y37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4451,7 +4836,7 @@
       </c>
       <c r="Q16" s="7"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -4499,7 +4884,7 @@
       </c>
       <c r="Q17" s="7"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -4552,7 +4937,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -4611,7 +4996,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -4664,8 +5049,11 @@
       <c r="R20" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="X20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -4719,19 +5107,34 @@
         <v>61</v>
       </c>
       <c r="S21" s="12">
-        <f>AVERAGE(D6)</f>
+        <f>AVERAGE($D$6)</f>
         <v>4.6457219251336896</v>
       </c>
       <c r="T21" s="12">
-        <f>AVERAGE(B7:B10,D7,B13,E9,E13,K8,K9,K16,M7)</f>
+        <f>AVERAGE($B$7:$B$10,$D$7,$B$13,$E$9,$E$13,$K$8,$K$9,$K$16,$M$7)</f>
         <v>15.71439042044959</v>
       </c>
       <c r="V21" s="12">
-        <f>AVERAGE(B7,K7)</f>
+        <f>AVERAGE($B$7,$K$7)</f>
         <v>14.037647940612985</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X21" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y21" s="12">
+        <f>_xlfn.STDEV.P($D$6)</f>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="12">
+        <f>_xlfn.STDEV.P($B$7:$B$10,$D$7,$B$13,$E$9,$E$13,$K$8,$K$9,$K$16,$M$7)</f>
+        <v>6.8658020911948769</v>
+      </c>
+      <c r="AB21" s="12">
+        <f>_xlfn.STDEV.P($B$7,$K$7)</f>
+        <v>0.6452186162239153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -4784,23 +5187,42 @@
         <v>62</v>
       </c>
       <c r="S22" s="12">
-        <f>AVERAGE(B4:B6,D4:D5,I6)</f>
+        <f>AVERAGE($B$4:$B$6,$D$4:$D$5,$I$6)</f>
         <v>9.5178319443666641</v>
       </c>
       <c r="T22" s="12">
-        <f>AVERAGE(B11:B12,B15:B16,D9,D11,D13,D15,E8,E10:E11,E14:E15,F8:F10,F16,H7:H11,H13,H15:H16,K7,K10:K15,L16,M8,M10,M12,M14:M16,)</f>
+        <f>AVERAGE($B$11:$B$12,$B$15:$B$16,$D$9,$D$11,$D$13,$D$15,$E$8,$E$10:$E$11,$E$14:$E$15,$F$8:$F$10,$F$16,$H$7:$H$11,$H$13,$H$15:$H$16,$K$7,$K$10:$K$15,$L$16,$M$8,$M$10,$M$12,$M$14:$M$16,)</f>
         <v>15.943012273166469</v>
       </c>
       <c r="U22" s="12">
-        <f>AVERAGE(B3,D3)</f>
+        <f>AVERAGE($B$3,$D$3)</f>
         <v>8.9568755874498329</v>
       </c>
       <c r="V22" s="12">
-        <f>AVERAGE(B8:B9,B15:B16,E7:F9,F11,E13,E15:F16,H7,H9:H10,H14:H15,K8:K16,L15:L16,M13:M16,M7,M11,)</f>
+        <f>AVERAGE($B$8:$B$9,$B$15:$B$16,$E$7:$F$9,$F$11,$E$13,$E$15:$F$16,$H$7,$H$9:$H$10,$H$14:$H$15,$K$8:$K$16,$L$15:$L$16,$M$13:$M$16,$M$7,$M$11,)</f>
         <v>16.873050209244241</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X22" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y22" s="12">
+        <f>_xlfn.STDEV.P($B$4:$B$6,$D$4:$D$5,$I$6)</f>
+        <v>4.3770472159456837</v>
+      </c>
+      <c r="Z22" s="12">
+        <f>_xlfn.STDEV.P($B$11:$B$12,$B$15:$B$16,$D$9,$D$11,$D$13,$D$15,$E$8,$E$10:$E$11,$E$14:$E$15,$F$8:$F$10,$F$16,$H$7:$H$11,$H$13,$H$15:$H$16,$K$7,$K$10:$K$15,$L$16,$M$8,$M$10,$M$12,$M$14:$M$16,)</f>
+        <v>6.1076835870428834</v>
+      </c>
+      <c r="AA22" s="12">
+        <f>_xlfn.STDEV.P($B$3,$D$3)</f>
+        <v>1.1733704328106547</v>
+      </c>
+      <c r="AB22" s="12">
+        <f>_xlfn.STDEV.P($B$8:$B$9,$B$15:$B$16,$E$7:$F$9,$F$11,$E$13,$E$15:$F$16,$H$7,$H$9:$H$10,$H$14:$H$15,$K$8:$K$16,$L$15:$L$16,$M$13:$M$16,$M$7,$M$11,)</f>
+        <v>6.7670806884886199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -4853,23 +5275,42 @@
         <v>63</v>
       </c>
       <c r="S23" s="12">
-        <f>AVERAGE(B2:B3,D3,C5:C6,E6,I4:I5,K5:K6,L6)</f>
+        <f>AVERAGE($B$2:$B$3,$D$3,$C$5:$C$6,$E$6,$I$4:$I$5,$K$5:$K$6,$L$6)</f>
         <v>10.364245249949688</v>
       </c>
       <c r="T23" s="12">
-        <f>AVERAGE(C7:C16,B14,D8,D10,D12,D14,D16,E16,E12,E7,F7,F11:F15,G15,H12,H14,I7:I16,L9,L11:L15,M9,M11,M13,N7:N13,O7:O16,N15:N16)</f>
+        <f>AVERAGE($C$7:$C$16,$B$14,$D$8,$D$10,$D$12,$D$14,$D$16,$E$16,$E$12,$E$7,$F$7,$F$11:$F$15,$G$15,$H$12,$H$14,$I$7:$I$16,$L$9,$L$11:$L$15,$M$9,$M$11,$M$13,$N$7:$N$13,$O$7:$O$16,$N$15:$N$16)</f>
         <v>11.758044578719737</v>
       </c>
       <c r="U23" s="12">
-        <f>AVERAGE(B4:B6,C5,D6,F4,F6,I3:I6,K5:K6,M5,N6,)</f>
-        <v>8.675560395331118</v>
+        <f>AVERAGE($B$4:$B$6,$C$5,$D$6,$F$4,$F$6,$I$3:$I$6,$K$5:$K$6,$M$5,$N$6)</f>
+        <v>9.2539310883531929</v>
       </c>
       <c r="V23" s="12">
-        <f>AVERAGE(B10:B14,C7:C16,D12,D15,E10:E12,E14,F10,F12:F14,G15,H8,H11:H13,H16,I7:I16,J8,L13:L14,M8:M10,N10,N12,N14,O7:O16,)</f>
+        <f>AVERAGE($B$10:$B$14,$C$7:$C$16,$D$12,$D$15,$E$10:$E$12,$E$14,$F$10,$F$12:$F$14,$G$15,$H$8,$H$11:$H$13,$H$16,$I$7:$I$16,$J$8,$L$13:$L$14,$M$8:$M$10,$N$10,$N$12,$N$14,$O$7:$O$16,)</f>
         <v>12.023992658297518</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X23" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y23" s="12">
+        <f>_xlfn.STDEV.P($B$2:$B$3,$D$3,$C$5:$C$6,$E$6,$I$4:$I$5,$K$5:$K$6,$L$6)</f>
+        <v>3.2147609857590096</v>
+      </c>
+      <c r="Z23" s="12">
+        <f>_xlfn.STDEV.P($C$7:$C$16,$B$14,$D$8,$D$10,$D$12,$D$14,$D$16,$E$16,$E$12,$E$7,$F$7,$F$11:$F$15,$G$15,$H$12,$H$14,$I$7:$I$16,$L$9,$L$11:$L$15,$M$9,$M$11,$M$13,$N$7:$N$13,$O$7:$O$16,$N$15:$N$16)</f>
+        <v>6.1486685037937487</v>
+      </c>
+      <c r="AA23" s="12">
+        <f>_xlfn.STDEV.P($B$4:$B$6,$C$5,$D$6,$F$4,$F$6,$I$3:$I$6,$K$5:$K$6,$M$5,$N$6)</f>
+        <v>4.1298489631679915</v>
+      </c>
+      <c r="AB23" s="12">
+        <f>_xlfn.STDEV.P($B$10:$B$14,$C$7:$C$16,$D$12,$D$15,$E$10:$E$12,$E$14,$F$10,$F$12:$F$14,$G$15,$H$8,$H$11:$H$13,$H$16,$I$7:$I$16,$J$8,$L$13:$L$14,$M$8:$M$10,$N$10,$N$12,$N$14,$O$7:$O$16,)</f>
+        <v>6.4772494647050305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -4922,23 +5363,42 @@
         <v>64</v>
       </c>
       <c r="S24" s="12">
-        <f>AVERAGE(C2:C4,D2,E2:E5,F2:F6,G2:G6,H2:H6,I2:I3,J2:J6,K2:K4,L2:L5,M2:M6,N2:N6,O2:O6)</f>
+        <f>AVERAGE($C$2:$C$4,$D$2,$E$2:$E$5,$F$2:$F$6,$G$2:$G$6,$H$2:$H$6,$I$2:$I$3,$J$2:$J$6,$K$2:$K$4,$L$2:$L$5,$M$2:$M$6,$N$2:$N$6,$O$2:$O$6)</f>
         <v>9.9621493293864596</v>
       </c>
       <c r="T24" s="12">
-        <f>AVERAGE(G7:G14,J7:J16,L7:L8,L10,N14,)</f>
+        <f>AVERAGE($G$7:$G$14,$J$7:$J$16,$L$7:$L$8,$L$10,$N$14,)</f>
         <v>9.4954319378741339</v>
       </c>
       <c r="U24" s="12">
-        <f>AVERAGE(B2:O2,C3:C4,C6,D4,E3:E6,D5,F3,F5,G3:H6,J3:J6,K3:K4,L3:L6,M3:O4,N5:O5,O6,M6,)</f>
+        <f>AVERAGE($B$2:$O$2,$C$3:$C$4,$C$6,$D$4,$E$3:$E$6,$D$5,$F$3,$F$5,$G$3:$H$6,$J$3:$J$6,$K$3:$K$4,$L$3:$L$6,$M$3:$O$4,$N$5:$O$5,$O$6,$M$6,)</f>
         <v>9.9457122031236764</v>
       </c>
       <c r="V24" s="12">
-        <f>AVERAGE(D7:D11,D13:D14,D16,G7:G14,G16,J7,J9:J16,L7:L12,M12,N7:N9,N11,N13,N15:N16,)</f>
+        <f>AVERAGE($D$7:$D$11,$D$13:$D$14,$D$16,$G$7:$G$14,$G$16,$J$7,$J$9:$J$16,$L$7:$L$12,$M$12,$N$7:$N$9,$N$11,$N$13,$N$15:$N$16,)</f>
         <v>9.9226579781879511</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="X24" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y24" s="12">
+        <f>_xlfn.STDEV.P($C$2:$C$4,$D$2,$E$2:$E$5,$F$2:$F$6,$G$2:$G$6,$H$2:$H$6,$I$2:$I$3,$J$2:$J$6,$K$2:$K$4,$L$2:$L$5,$M$2:$M$6,$N$2:$N$6,$O$2:$O$6)</f>
+        <v>3.3651677051330493</v>
+      </c>
+      <c r="Z24" s="12">
+        <f>_xlfn.STDEV.P($G$7:$G$14,$J$7:$J$16,$L$7:$L$8,$L$10,$N$14,)</f>
+        <v>4.3293693222021847</v>
+      </c>
+      <c r="AA24" s="12">
+        <f>_xlfn.STDEV.P($B$2:$O$2,$C$3:$C$4,$C$6,$D$4,$E$3:$E$6,$D$5,$F$3,$F$5,$G$3:$H$6,$J$3:$J$6,$K$3:$K$4,$L$3:$L$6,$M$3:$O$4,$N$5:$O$5,$O$6,$M$6,)</f>
+        <v>3.5481432695379902</v>
+      </c>
+      <c r="AB24" s="12">
+        <f>_xlfn.STDEV.P($D$7:$D$11,$D$13:$D$14,$D$16,$G$7:$G$14,$G$16,$J$7,$J$9:$J$16,$L$7:$L$12,$M$12,$N$7:$N$9,$N$11,$N$13,$N$15:$N$16,)</f>
+        <v>3.9695089032141415</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
@@ -4986,7 +5446,7 @@
       </c>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -5033,7 +5493,7 @@
         <v>20.53643998916283</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
@@ -5080,7 +5540,7 @@
         <v>28.726287262872631</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
@@ -5130,7 +5590,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
@@ -5189,7 +5649,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
@@ -5242,19 +5702,34 @@
         <v>60</v>
       </c>
       <c r="T30" s="12">
-        <f>AVERAGE(B30:B31,I30,K31,M22:M23,)</f>
+        <f>AVERAGE($B$30:$B$31,$I$30,$K$31,$M$22:$M$23,)</f>
         <v>14.918236681922115</v>
       </c>
       <c r="U30" s="12">
-        <f>AVERAGE(I21)</f>
+        <f>AVERAGE($I$21)</f>
         <v>10.05167958656331</v>
       </c>
       <c r="V30" s="12">
-        <f>AVERAGE(B30,K30,)</f>
+        <f>AVERAGE($B$30,$K$30,)</f>
         <v>18.95308006233163</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X30" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z30" s="12">
+        <f>_xlfn.STDEV.P($B$30:$B$31,$I$30,$K$31,$M$22:$M$23,)</f>
+        <v>10.21754600827677</v>
+      </c>
+      <c r="AA30" s="12">
+        <f>_xlfn.STDEV.P($I$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="12">
+        <f>_xlfn.STDEV.P($B$30,$K$30,)</f>
+        <v>14.696247232055764</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
@@ -5307,23 +5782,42 @@
         <v>61</v>
       </c>
       <c r="S31" s="12">
-        <f>AVERAGE(B17,B21,D21)</f>
+        <f>AVERAGE($B$17,$B$21,$D$21)</f>
         <v>41.804947683585773</v>
       </c>
       <c r="T31" s="12">
-        <f>AVERAGE(B26,B28:B29,D22:D24,D26,D28,C30:D31,E31,I26,I28,I31,K30,M30:M31,M24,O31,M25,M28,M26:M27,)</f>
+        <f>AVERAGE($B$26,$B$28:$B$29,$D$22:$D$24,$D$26,$D$28,$C$30:$D$31,$E$31,$I$26,$I$28,$I$31,$K$30,$M$30:$M$31,$M$24,$O$31,$M$25,$M$28,$M$26:$M$27,)</f>
         <v>23.280876083764038</v>
       </c>
       <c r="U31" s="12">
-        <f>AVERAGE(B20,D21:E21,K21,)</f>
+        <f>AVERAGE($B$20,$D$21:$E$21,$K$21,)</f>
         <v>37.193058167831744</v>
       </c>
       <c r="V31" s="12">
-        <f>AVERAGE(B28,B31,C30:E30,C31,H31:I31,I30,K29,K31,M24:M27,N30:O30,)</f>
+        <f>AVERAGE($B$28,$B$31,$C$30:$E$30,$C$31,$H$31:$I$31,$I$30,$K$29,$K$31,$M$24:$M$27,$N$30:$O$30,)</f>
         <v>25.054865551099216</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X31" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y31" s="12">
+        <f>_xlfn.STDEV.P($B$17,$B$21,$D$21)</f>
+        <v>13.130080010281272</v>
+      </c>
+      <c r="Z31" s="12">
+        <f>_xlfn.STDEV.P($B$26,$B$28:$B$29,$D$22:$D$24,$D$26,$D$28,$C$30:$D$31,$E$31,$I$26,$I$28,$I$31,$K$30,$M$30:$M$31,$M$24,$O$31,$M$25,$M$28,$M$26:$M$27,)</f>
+        <v>12.681431910871705</v>
+      </c>
+      <c r="AA31" s="12">
+        <f>_xlfn.STDEV.P($B$20,$D$21:$E$21,$K$21,)</f>
+        <v>20.161708103803086</v>
+      </c>
+      <c r="AB31" s="12">
+        <f>_xlfn.STDEV.P($B$28,$B$31,$C$30:$E$30,$C$31,$H$31:$I$31,$I$30,$K$29,$K$31,$M$24:$M$27,$N$30:$O$30,)</f>
+        <v>16.727100015146281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.15">
       <c r="Q32" t="s">
         <v>55</v>
       </c>
@@ -5331,23 +5825,42 @@
         <v>62</v>
       </c>
       <c r="S32" s="12">
-        <f>AVERAGE(B19:B20,D20,D18,E21,I21,K21,)</f>
+        <f>AVERAGE($B$19:$B$20,$D$20,$D$18,$E$21,$I$21,$K$21,)</f>
         <v>30.9120929495569</v>
       </c>
       <c r="T32" s="12">
-        <f>AVERAGE(B22:B25,C22,C28:C29,D25,D27,D29,H22:I22,I24,I27,N28,K28:L28,K29,M29,,H28,I29,H30:H31,K22:K23,L30:L31,N30:N31,O30,)</f>
-        <v>25.1056801034564</v>
+        <f>AVERAGE($B$22:$B$25,$C$22,$C$28:$C$29,$D$25,$D$27,$D$29,$H$22:$I$22,$I$24,$I$27,$N$28,$K$28:$L$28,$K$29,$M$29,$H$28,$I$29,$H$30:$H$31,$K$22:$K$23,$L$30:$L$31,$N$30:$N$31,$O$30,)</f>
+        <v>25.915540751954993</v>
       </c>
       <c r="U32" s="12">
-        <f>AVERAGE(B18:B19,B21,D17,E20,F21,I19:I20,K19:K20,)</f>
+        <f>AVERAGE($B$18:$B$19,$B$21,$D$17,$E$20,$F$21,$I$19:$I$20,$K$19:$K$20,)</f>
         <v>25.885903806619385</v>
       </c>
       <c r="V32" s="12">
-        <f>AVERAGE(B24:B25,B27,B29,C28:C29,D24:D26,D31:F31,F30,F26,H27,H29:H30,I25:I29,K22:K23,K27:K28,L24,L26:L28,L30:L31,M28:M31,N22,N25:N26,N28,N31:O31,)</f>
+        <f>AVERAGE($B$24:$B$25,$B$27,$B$29,$C$28:$C$29,$D$24:$D$26,$D$31:$F$31,$F$30,$F$26,$H$27,$H$29:$H$30,$I$25:$I$29,$K$22:$K$23,$K$27:$K$28,$L$24,$L$26:$L$28,$L$30:$L$31,$M$28:$M$31,$N$22,$N$25:$N$26,$N$28,$N$31:$O$31,)</f>
         <v>25.505304445249305</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X32" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y32" s="12">
+        <f>_xlfn.STDEV.P($B$19:$B$20,$D$20,$D$18,$E$21,$I$21,$K$21,)</f>
+        <v>17.837104994937945</v>
+      </c>
+      <c r="Z32" s="12">
+        <f>_xlfn.STDEV.P($B$22:$B$25,$C$22,$C$28:$C$29,$D$25,$D$27,$D$29,$H$22:$I$22,$I$24,$I$27,$N$28,$K$28:$L$28,$K$29,$M$29,$H$28,$I$29,$H$30:$H$31,$K$22:$K$23,$L$30:$L$31,$N$30:$N$31,$O$30,)</f>
+        <v>13.822628572470176</v>
+      </c>
+      <c r="AA32" s="12">
+        <f>_xlfn.STDEV.P($B$18:$B$19,$B$21,$D$17,$E$20,$F$21,$I$19:$I$20,$K$19:$K$20,)</f>
+        <v>15.78996640778473</v>
+      </c>
+      <c r="AB32" s="12">
+        <f>_xlfn.STDEV.P($B$24:$B$25,$B$27,$B$29,$C$28:$C$29,$D$24:$D$26,$D$31:$F$31,$F$30,$F$26,$H$27,$H$29:$H$30,$I$25:$I$29,$K$22:$K$23,$K$27:$K$28,$L$24,$L$26:$L$28,$L$30:$L$31,$M$28:$M$31,$N$22,$N$25:$N$26,$N$28,$N$31:$O$31,)</f>
+        <v>13.059103938567604</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
@@ -5358,23 +5871,42 @@
         <v>63</v>
       </c>
       <c r="S33" s="12">
-        <f>AVERAGE(D17,B18,C21,D19,E19:E20,F20:F21,I20,N17:N21,L20:M21,O21,)</f>
+        <f>AVERAGE($D$17,$B$18,$C$21,$D$19,$E$19:$E$20,$F$20:$F$21,$I$20,$N$17:$N$21,$L$20:$M$21,$O$21,)</f>
         <v>28.095323485159735</v>
       </c>
       <c r="T33" s="12">
-        <f>AVERAGE(B27,C23:C27,E22,E26,E28,E30,F22:F30,G22:G24,F31,G26,G28,G30:G31,H23:H24,H27,H29,I23,I25,K24:K27,L22:L27,L29,N22:N27,O22:O29,N29)</f>
+        <f>AVERAGE($B$27,$C$23:$C$27,$E$22,$E$26,$E$28,$E$30,$F$22:$F$30,$G$22:$G$24,$F$31,$G$26,$G$28,$G$30:$G$31,$H$23:$H$24,$H$27,$H$29,$I$23,$I$25,$K$24:$K$27,$L$22:$L$27,$L$29,$N$22:$N$27,$O$22:$O$29,$N$29)</f>
         <v>29.561893420156036</v>
       </c>
       <c r="U33" s="12">
-        <f>AVERAGE(C21,D19:D20,F19:F20,G21:H21,I17:J17,N17,L19:N21,O20:O21,)</f>
+        <f>AVERAGE($C$21,$D$19:$D$20,$F$19:$F$20,$G$21:$H$21,$I$17:$J$17,$N$17,$L$19:$N$21,$O$20:$O$21,)</f>
         <v>26.676861108638015</v>
       </c>
       <c r="V33" s="12">
-        <f>AVERAGE(B22:B23,B26,C22:C27,D22,D27,D29,F22:F25,F27:F29,G22,G26:H26,G28:G31,H28,H22:H23,I22:I24,J31,K24:K26,L25,L29,L22:M23,N23:N24,O22:O25,N27:O27,O28:O29,N29,)</f>
+        <f>AVERAGE($B$22:$B$23,$B$26,$C$22:$C$27,$D$22,$D$27,$D$29,$F$22:$F$25,$F$27:$F$29,$G$22,$G$26:$H$26,$G$28:$G$31,$H$28,$H$22:$H$23,$I$22:$I$24,$J$31,$K$24:$K$26,$L$25,$L$29,$L$22:$M$23,$N$23:$N$24,$O$22:$O$25,$N$27:$O$27,$O$28:$O$29,$N$29,)</f>
         <v>27.495647193209351</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X33" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y33" s="12">
+        <f>_xlfn.STDEV.P($D$17,$B$18,$C$21,$D$19,$E$19:$E$20,$F$20:$F$21,$I$20,$N$17:$N$21,$L$20:$M$21,$O$21,)</f>
+        <v>11.449025384329159</v>
+      </c>
+      <c r="Z33" s="12">
+        <f>_xlfn.STDEV.P($B$27,$C$23:$C$27,$E$22,$E$26,$E$28,$E$30,$F$22:$F$30,$G$22:$G$24,$F$31,$G$26,$G$28,$G$30:$G$31,$H$23:$H$24,$H$27,$H$29,$I$23,$I$25,$K$24:$K$27,$L$22:$L$27,$L$29,$N$22:$N$27,$O$22:$O$29,$N$29)</f>
+        <v>9.9716943458124749</v>
+      </c>
+      <c r="AA33" s="12">
+        <f>_xlfn.STDEV.P($C$21,$D$19:$D$20,$F$19:$F$20,$G$21:$H$21,$I$17:$J$17,$N$17,$L$19:$N$21,$O$20:$O$21,)</f>
+        <v>14.258906410472907</v>
+      </c>
+      <c r="AB33" s="12">
+        <f>_xlfn.STDEV.P($B$22:$B$23,$B$26,$C$22:$C$27,$D$22,$D$27,$D$29,$F$22:$F$25,$F$27:$F$29,$G$22,$G$26:$H$26,$G$28:$G$31,$H$28,$H$22:$H$23,$I$22:$I$24,$J$31,$K$24:$K$26,$L$25,$L$29,$L$22:$M$23,$N$23:$N$24,$O$22:$O$25,$N$27:$O$27,$O$28:$O$29,$N$29,)</f>
+        <v>9.7978437402395251</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>0</v>
       </c>
@@ -5424,23 +5956,42 @@
         <v>64</v>
       </c>
       <c r="S34" s="12">
-        <f>AVERAGE(C17:C20,E17:E18,F17:F19,G17:H21,I17:I19,J17:J21,K17:K20,L17:M19,O17:O20,)</f>
+        <f>AVERAGE($C$17:$C$20,$E$17:$E$18,$F$17:$F$19,$G$17:$H$21,$I$17:$I$19,$J$17:$J$21,$K$17:$K$20,$L$17:$M$19,$O$17:$O$20,)</f>
         <v>18.416554728953653</v>
       </c>
       <c r="T34" s="12">
-        <f>AVERAGE(E23:E25,E27,E29,G25,G27,G29,H25:H26,J22:J31)</f>
+        <f>AVERAGE($E$23:$E$25,$E$27,$E$29,$G$25,$G$27,$G$29,$H$25:$H$26,$J$22:$J$31)</f>
         <v>32.730953972532795</v>
       </c>
       <c r="U34" s="12">
-        <f>AVERAGE(B17:C17,C18:C20,D18:H18,E17:H17,E19,G19:H20,I18,J18:J21,K17:M18,N18,O17:O19,)</f>
+        <f>AVERAGE($B$17:$C$17,$C$18:$C$20,$D$18:$H$18,$E$17:$H$17,$E$19,$G$19:$H$20,$I$18,$J$18:$J$21,$K$17:$M$18,$N$18,$O$17:$O$19,)</f>
         <v>18.298871379368272</v>
       </c>
       <c r="V34" s="12">
-        <f>AVERAGE(D23,D28,E22:E29,G23:G25,G27,H24:H25,J22:J30,O26,)</f>
+        <f>AVERAGE($D$23,$D$28,$E$22:$E$29,$G$23:$G$25,$G$27,$H$24:$H$25,$J$22:$J$30,$O$26,)</f>
         <v>30.464560363554845</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X34" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y34" s="12">
+        <f>_xlfn.STDEV.P($C$17:$C$20,$E$17:$E$18,$F$17:$F$19,$G$17:$H$21,$I$17:$I$19,$J$17:$J$21,$K$17:$K$20,$L$17:$M$19,$O$17:$O$20,)</f>
+        <v>11.061653805214194</v>
+      </c>
+      <c r="Z34" s="12">
+        <f>_xlfn.STDEV.P($E$23:$E$25,$E$27,$E$29,$G$25,$G$27,$G$29,$H$25:$H$26,$J$22:$J$31)</f>
+        <v>6.3309428761678177</v>
+      </c>
+      <c r="AA34" s="12">
+        <f>_xlfn.STDEV.P($B$17:$C$17,$C$18:$C$20,$D$18:$H$18,$E$17:$H$17,$E$19,$G$19:$H$20,$I$18,$J$18:$J$21,$K$17:$M$18,$N$18,$O$17:$O$19,)</f>
+        <v>8.8318848835849852</v>
+      </c>
+      <c r="AB34" s="12">
+        <f>_xlfn.STDEV.P($D$23,$D$28,$E$22:$E$29,$G$23:$G$25,$G$27,$H$24:$H$25,$J$22:$J$30,$O$26,)</f>
+        <v>9.672761992465162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
@@ -5487,7 +6038,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
@@ -5538,7 +6089,7 @@
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
@@ -5585,7 +6136,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>17</v>
       </c>
@@ -5632,7 +6183,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>18</v>
       </c>
@@ -5679,7 +6230,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -5726,7 +6277,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>20</v>
       </c>
@@ -5773,7 +6324,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
@@ -5820,7 +6371,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>22</v>
       </c>
@@ -5867,7 +6418,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>23</v>
       </c>
@@ -5914,7 +6465,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>24</v>
       </c>
@@ -5961,7 +6512,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>25</v>
       </c>
@@ -6008,7 +6559,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>26</v>
       </c>
@@ -6055,7 +6606,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>27</v>
       </c>
@@ -8588,8 +9139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A72B530-D1CA-4CD0-9DA9-0C5B32D19717}">
   <dimension ref="A1:EK102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q42" sqref="Q42:X47"/>
+    <sheetView topLeftCell="M18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T37" sqref="T37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/kaiseki/around_30.xlsx
+++ b/kaiseki/around_30.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6048939b20a31529/ドキュメント/b4_analysis/kaiseki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="304" documentId="13_ncr:1_{310BABBE-DCD8-4E12-B918-667F024EE8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07F38E34-B7E2-48BB-B264-A4B72CEECD2C}"/>
+  <xr:revisionPtr revIDLastSave="341" documentId="13_ncr:1_{310BABBE-DCD8-4E12-B918-667F024EE8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{729CC6BF-5BBC-4328-ADA2-C738480A5F6F}"/>
   <bookViews>
-    <workbookView xWindow="31890" yWindow="180" windowWidth="17805" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4065" yWindow="2280" windowWidth="19740" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="119">
   <si>
     <t>imahashi</t>
   </si>
@@ -481,6 +481,45 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>通常：事前</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジゼン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通常：事後</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SSE:レベル1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SSE:レベル2</t>
+  </si>
+  <si>
+    <t>SSE:レベル3</t>
+  </si>
+  <si>
+    <t>SSE:レベル4</t>
+  </si>
+  <si>
+    <t>SSE:レベル5</t>
+  </si>
+  <si>
+    <t>t-検定: 分散が等しくないと仮定した２標本による検定</t>
+  </si>
 </sst>
 </file>
 
@@ -803,7 +842,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：0-20</c:v>
+                  <c:v>SSE:レベル1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -860,13 +899,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -898,7 +937,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：21-40</c:v>
+                  <c:v>SSE:レベル2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -973,13 +1012,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -1020,7 +1059,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：41-60</c:v>
+                  <c:v>SSE:レベル3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1101,13 +1140,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -1151,7 +1190,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：61-80</c:v>
+                  <c:v>SSE:レベル4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1232,13 +1271,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -1282,7 +1321,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：81-100</c:v>
+                  <c:v>SSE:レベル5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1363,13 +1402,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -1472,7 +1511,7 @@
         <c:axId val="1178166032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="60"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1529,6 +1568,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.1666666666666664E-2"/>
+              <c:y val="0.13425925925925927"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1593,45 +1640,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1640,6 +1648,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1702,7 +1741,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：0-20</c:v>
+                  <c:v>SSE:レベル1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1777,13 +1816,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -1824,7 +1863,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：21-40</c:v>
+                  <c:v>SSE:レベル2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1905,13 +1944,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -1955,7 +1994,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：41-60</c:v>
+                  <c:v>SSE:レベル3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2036,13 +2075,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -2086,7 +2125,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：61-80</c:v>
+                  <c:v>SSE:レベル4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2167,13 +2206,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -2217,7 +2256,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：81-100</c:v>
+                  <c:v>SSE:レベル5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2298,13 +2337,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -2407,7 +2446,7 @@
         <c:axId val="1182247696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="60"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2464,6 +2503,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.3333333333333333E-2"/>
+              <c:y val="0.18055555555555552"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2528,45 +2575,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2575,6 +2583,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3697,16 +3736,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>660797</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>122635</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>434578</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>134540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>398860</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>163116</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>172641</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>175022</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3733,16 +3772,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>494110</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>134542</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>53578</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>15479</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>232172</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>44054</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>482203</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>55960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4061,8 +4100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Y37" sqref="Y37"/>
+    <sheetView tabSelected="1" topLeftCell="Q4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V44" sqref="V44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4984,13 +5023,13 @@
         <v>22.122122122122121</v>
       </c>
       <c r="S19" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="T19" t="s">
         <v>50</v>
       </c>
       <c r="U19" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="V19" t="s">
         <v>52</v>
@@ -5047,7 +5086,7 @@
         <v>53</v>
       </c>
       <c r="R20" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="X20" t="s">
         <v>60</v>
@@ -5104,7 +5143,7 @@
         <v>54</v>
       </c>
       <c r="R21" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="S21" s="12">
         <f>AVERAGE($D$6)</f>
@@ -5184,7 +5223,7 @@
         <v>55</v>
       </c>
       <c r="R22" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="S22" s="12">
         <f>AVERAGE($B$4:$B$6,$D$4:$D$5,$I$6)</f>
@@ -5272,7 +5311,7 @@
         <v>56</v>
       </c>
       <c r="R23" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="S23" s="12">
         <f>AVERAGE($B$2:$B$3,$D$3,$C$5:$C$6,$E$6,$I$4:$I$5,$K$5:$K$6,$L$6)</f>
@@ -5360,7 +5399,7 @@
         <v>57</v>
       </c>
       <c r="R24" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="S24" s="12">
         <f>AVERAGE($C$2:$C$4,$D$2,$E$2:$E$5,$F$2:$F$6,$G$2:$G$6,$H$2:$H$6,$I$2:$I$3,$J$2:$J$6,$K$2:$K$4,$L$2:$L$5,$M$2:$M$6,$N$2:$N$6,$O$2:$O$6)</f>
@@ -5637,13 +5676,13 @@
         <v>23.861852433281001</v>
       </c>
       <c r="S29" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="T29" t="s">
         <v>50</v>
       </c>
       <c r="U29" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="V29" t="s">
         <v>52</v>
@@ -5699,7 +5738,7 @@
         <v>53</v>
       </c>
       <c r="R30" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="T30" s="12">
         <f>AVERAGE($B$30:$B$31,$I$30,$K$31,$M$22:$M$23,)</f>
@@ -5779,7 +5818,7 @@
         <v>54</v>
       </c>
       <c r="R31" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="S31" s="12">
         <f>AVERAGE($B$17,$B$21,$D$21)</f>
@@ -5822,7 +5861,7 @@
         <v>55</v>
       </c>
       <c r="R32" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="S32" s="12">
         <f>AVERAGE($B$19:$B$20,$D$20,$D$18,$E$21,$I$21,$K$21,)</f>
@@ -5868,7 +5907,7 @@
         <v>56</v>
       </c>
       <c r="R33" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="S33" s="12">
         <f>AVERAGE($D$17,$B$18,$C$21,$D$19,$E$19:$E$20,$F$20:$F$21,$I$20,$N$17:$N$21,$L$20:$M$21,$O$21,)</f>
@@ -5953,7 +5992,7 @@
         <v>57</v>
       </c>
       <c r="R34" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="S34" s="12">
         <f>AVERAGE($C$17:$C$20,$E$17:$E$18,$F$17:$F$19,$G$17:$H$21,$I$17:$I$19,$J$17:$J$21,$K$17:$K$20,$L$17:$M$19,$O$17:$O$20,)</f>
@@ -9139,8 +9178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A72B530-D1CA-4CD0-9DA9-0C5B32D19717}">
   <dimension ref="A1:EK102"/>
   <sheetViews>
-    <sheetView topLeftCell="M18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T37" sqref="T37"/>
+    <sheetView topLeftCell="AA28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ50" sqref="AJ50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11749,7 +11788,7 @@
         <v>4.9197003687452361E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
@@ -11766,7 +11805,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>0</v>
       </c>
@@ -11830,7 +11869,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
@@ -11892,8 +11931,14 @@
         <f>TDIST(ABS(V35),68,2)</f>
         <v>0.50952306838725425</v>
       </c>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH35" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
@@ -11943,7 +11988,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
@@ -11998,8 +12043,22 @@
       <c r="AD37" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH37" s="14"/>
+      <c r="AI37" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ37" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL37" s="14"/>
+      <c r="AM37" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN37" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>17</v>
       </c>
@@ -12063,8 +12122,26 @@
       <c r="AD38" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="39" spans="1:32" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AH38" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI38">
+        <v>9.9113025209839467</v>
+      </c>
+      <c r="AJ38">
+        <v>13.045834166454334</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM38">
+        <v>24.40161935666373</v>
+      </c>
+      <c r="AN38">
+        <v>27.942021353584188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>18</v>
       </c>
@@ -12129,8 +12206,26 @@
         <f>CORREL(B7:O16,B76:O85)</f>
         <v>-0.41871820352923389</v>
       </c>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH39" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI39">
+        <v>12.297762872900263</v>
+      </c>
+      <c r="AJ39">
+        <v>39.700077912852784</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM39">
+        <v>174.8112816829188</v>
+      </c>
+      <c r="AN39">
+        <v>127.00790504457271</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -12209,8 +12304,26 @@
       <c r="AF40" s="14" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH40" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI40">
+        <v>70</v>
+      </c>
+      <c r="AJ40">
+        <v>140</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM40">
+        <v>70</v>
+      </c>
+      <c r="AN40">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>20</v>
       </c>
@@ -12274,8 +12387,20 @@
       <c r="AF41">
         <v>27.942021353584188</v>
       </c>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH41" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
@@ -12351,8 +12476,20 @@
       <c r="AF42">
         <v>127.00790504457271</v>
       </c>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH42" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI42">
+        <v>206</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM42">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>22</v>
       </c>
@@ -12440,8 +12577,20 @@
       <c r="AF43">
         <v>140</v>
       </c>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH43" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI43">
+        <v>-4.6253652950584172</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM43">
+        <v>-1.9187822591587638</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>23</v>
       </c>
@@ -12531,8 +12680,20 @@
       <c r="AE44">
         <v>142.86575594863945</v>
       </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH44" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI44">
+        <v>3.300493301231094E-6</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM44">
+        <v>2.8693520881714868E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>24</v>
       </c>
@@ -12602,8 +12763,20 @@
       <c r="AE45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH45" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI45">
+        <v>1.6522841441887575</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM45">
+        <v>1.6576508993552355</v>
+      </c>
+    </row>
+    <row r="46" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>25</v>
       </c>
@@ -12685,8 +12858,20 @@
       <c r="AE46">
         <v>208</v>
       </c>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH46" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI46">
+        <v>6.6009866024621881E-6</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM46">
+        <v>5.7387041763429736E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>26</v>
       </c>
@@ -12776,8 +12961,22 @@
       <c r="AE47">
         <v>-2.0234472903577938</v>
       </c>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH47" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI47" s="13">
+        <v>1.9715466694452266</v>
+      </c>
+      <c r="AJ47" s="13"/>
+      <c r="AL47" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM47" s="13">
+        <v>1.9799304050824413</v>
+      </c>
+      <c r="AN47" s="13"/>
+    </row>
+    <row r="48" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>27</v>
       </c>
